--- a/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho/Nhập Kho 2022/Tháng 10/NKBH_AnhTuanNinhNBTraKho.xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho/Nhập Kho 2022/Tháng 10/NKBH_AnhTuanNinhNBTraKho.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
   <si>
     <t>STT</t>
   </si>
@@ -90,19 +90,49 @@
     <t>KT.Kho</t>
   </si>
   <si>
-    <t>Tên Khách hàng: Đại lý Phú Thọ</t>
-  </si>
-  <si>
     <t>Họ và tên người đề nghị: Nguyễn Minh Tùng</t>
   </si>
   <si>
-    <t>Ngày:  18 Tháng 10 Năm  2022</t>
-  </si>
-  <si>
     <t>Nguyễn Minh Tùng</t>
   </si>
   <si>
     <t>TP_VNSH02</t>
+  </si>
+  <si>
+    <t>Chiếc</t>
+  </si>
+  <si>
+    <t>Thiết bị đổi bên đại lý anh Tuấn Ninh Bình trả kho</t>
+  </si>
+  <si>
+    <t>Tên Khách hàng: Đại lý Anh Tuấn Ninh Bình</t>
+  </si>
+  <si>
+    <t>WP21110069S00141, lỗi nguồn</t>
+  </si>
+  <si>
+    <t>WP21110069S00737, thiết bị nóng</t>
+  </si>
+  <si>
+    <t>WSP21060004S0056, lỗi nguồn</t>
+  </si>
+  <si>
+    <t>WP21120135S02329, 0032002D09, lỗi nguồn</t>
+  </si>
+  <si>
+    <t>WSP21060008S0315, 0032000AC7, thiết bị nóng</t>
+  </si>
+  <si>
+    <t>WP21120135S02028, 0032002392, thiết bị nóng</t>
+  </si>
+  <si>
+    <t>WSP21060008S0110, 0032000AFA, thiết bị nóng</t>
+  </si>
+  <si>
+    <t>WSP21060004S0257, 003200040E1, thiết bị nóng</t>
+  </si>
+  <si>
+    <t>Ngày: 24 Tháng 10 Năm  2022</t>
   </si>
 </sst>
 </file>
@@ -162,12 +192,6 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="13"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -200,6 +224,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -215,7 +245,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -324,6 +354,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -331,110 +429,134 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -467,8 +589,8 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>21349</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -477,7 +599,7 @@
         <xdr:cNvPr id="1185" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A1040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -519,8 +641,8 @@
       <xdr:rowOff>111672</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>399541</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>498076</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>170793</xdr:rowOff>
     </xdr:to>
@@ -845,445 +967,492 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10:J10"/>
+      <selection activeCell="I8" sqref="I8:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1" customWidth="1"/>
+    <col min="4" max="4" width="1.5703125" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="9.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="24" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="32.85546875" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="28" t="s">
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="11" t="s">
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="11"/>
+      <c r="M1" s="25"/>
     </row>
     <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="11" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="11"/>
+      <c r="M2" s="25"/>
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="11" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="11"/>
+      <c r="M3" s="25"/>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="12"/>
+    </row>
+    <row r="6" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="44"/>
+      <c r="M7" s="43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="26">
+        <v>1</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="32">
+        <v>8</v>
+      </c>
+      <c r="G8" s="27"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="36"/>
+      <c r="M8" s="42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="26">
+        <v>2</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="33"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="26">
+        <v>3</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="33"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="26">
+        <v>4</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="33"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="26">
+        <v>5</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="33"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="26">
+        <v>6</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="33"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="26">
+        <v>7</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="33"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="26">
+        <v>8</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="28"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="34"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+    </row>
+    <row r="17" spans="1:13" s="2" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" s="15"/>
+    </row>
+    <row r="18" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="16"/>
+    </row>
+    <row r="19" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:13" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-    </row>
-    <row r="5" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="8"/>
-    </row>
-    <row r="6" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-    </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="10"/>
-      <c r="M7" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15">
-        <v>1</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="15"/>
-    </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15">
-        <v>2</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="15"/>
-    </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15">
-        <v>3</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="15"/>
-    </row>
-    <row r="11" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15">
-        <v>4</v>
-      </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="15"/>
-    </row>
-    <row r="12" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15">
-        <v>5</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="15"/>
-    </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15">
-        <v>6</v>
-      </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="15"/>
-    </row>
-    <row r="14" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15">
-        <v>7</v>
-      </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="15"/>
-    </row>
-    <row r="15" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15">
-        <v>8</v>
-      </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="15"/>
-    </row>
-    <row r="16" spans="1:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-    </row>
-    <row r="17" spans="1:13" s="2" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="23"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="M17" s="23"/>
-    </row>
-    <row r="18" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="13"/>
-    </row>
-    <row r="19" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-    </row>
-    <row r="20" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-    </row>
-    <row r="21" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-    </row>
-    <row r="22" spans="1:13" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="21"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="M22" s="21"/>
+      <c r="M22" s="17"/>
     </row>
     <row r="23" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
     </row>
     <row r="24" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -1294,14 +1463,40 @@
     <row r="30" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
+  <mergeCells count="47">
+    <mergeCell ref="E1:K3"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F8:F15"/>
+    <mergeCell ref="K8:L15"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B12:D12"/>
@@ -1316,42 +1511,10 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="E1:K3"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.5" right="0.5" top="1.5" bottom="1.5" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="19" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="105" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
